--- a/data_excel/193.xlsx
+++ b/data_excel/193.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
-  <si>
-    <t>甲</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>乙</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>數</t>
   </si>
@@ -76,10 +67,6 @@
 </t>
   </si>
   <si>
-    <t>特點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +84,18 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -166,14 +165,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -476,141 +530,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G1" activeCellId="6" sqref="A5:C5 A7 B7 C7 E1 F1 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -618,13 +663,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,37 +677,15 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/193.xlsx
+++ b/data_excel/193.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
-  <si>
-    <t>數</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>v</t>
   </si>
@@ -533,132 +530,132 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" activeCellId="6" sqref="A5:C5 A7 B7 C7 E1 F1 G1"/>
+      <selection activeCell="B8" sqref="B8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,26 +663,17 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/193.xlsx
+++ b/data_excel/193.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+  <si>
+    <t>數</t>
+  </si>
   <si>
     <t>v</t>
   </si>
@@ -530,132 +533,132 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C11"/>
+      <selection activeCell="G1" activeCellId="6" sqref="A5:C5 A7 B7 C7 E1 F1 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,17 +666,26 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
